--- a/inst/extdata/2.0.0/metadata/demo/archive/SDTM_METADATA.xlsx
+++ b/inst/extdata/2.0.0/metadata/demo/archive/SDTM_METADATA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655C4F3D-B3CC-4170-AE0E-FEED6E5B7239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB093938-AA67-440B-B16A-EA5E911CF5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="4560" windowWidth="24510" windowHeight="13305" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DEFINE_HEADER_METADATA" sheetId="7" r:id="rId1"/>
@@ -22,11 +22,21 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">VARIABLE_METADATA!$A$1:$P$160</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="840">
   <si>
     <t>OID</t>
   </si>
@@ -1235,12 +1245,6 @@
   </si>
   <si>
     <t>Glucose</t>
-  </si>
-  <si>
-    <t>WC.LB.LBTESTCD.GLUC.LBCAT.URINALYSIS</t>
-  </si>
-  <si>
-    <t>WC.LB.LBTESTCD.GLUC.LBCAT.CHEMISTRY</t>
   </si>
   <si>
     <t>Soft</t>
@@ -2457,133 +2461,118 @@
     <t>DATASETORDER</t>
   </si>
   <si>
-    <t>CHEMGLUC</t>
-  </si>
-  <si>
-    <t>WC.LB.LBTESTCD.GLUC.LBCAT.CHEMISTRY1</t>
-  </si>
-  <si>
-    <t>WC.LB.LBTESTCD.GLUC.LBCAT.CHEMISTRY2</t>
-  </si>
-  <si>
-    <t>WC.LB.LBTESTCD.GLUC.LBCAT.URINALYSIS1</t>
-  </si>
-  <si>
-    <t>WC.LB.LBTESTCD.GLUC.LBCAT.URINALYSIS2</t>
-  </si>
-  <si>
-    <t>MT.SETDOMAIN</t>
-  </si>
-  <si>
-    <t>MT.AE.AESEQ</t>
-  </si>
-  <si>
-    <t>MT.AE.EPOCH</t>
-  </si>
-  <si>
-    <t>MT.STUDYDAYS</t>
-  </si>
-  <si>
-    <t>MT.DM.RFENDTC</t>
-  </si>
-  <si>
-    <t>MT.DM.DTHDTC</t>
-  </si>
-  <si>
-    <t>MT.DM.DTHFL</t>
-  </si>
-  <si>
-    <t>MT.DM.AGE</t>
-  </si>
-  <si>
-    <t>MT.DM.AGEU</t>
-  </si>
-  <si>
-    <t>MT.DM.COUNTRY</t>
-  </si>
-  <si>
-    <t>MT.EX.EXSEQ</t>
-  </si>
-  <si>
-    <t>MT.EX.EXTRT</t>
-  </si>
-  <si>
-    <t>MT.EX.EXDOSU</t>
-  </si>
-  <si>
-    <t>MT.EX.EXDOSFRM</t>
-  </si>
-  <si>
-    <t>MT.EX.EPOCH</t>
-  </si>
-  <si>
-    <t>MT.SETNULL</t>
-  </si>
-  <si>
-    <t>MT.LB.LBSEQ</t>
-  </si>
-  <si>
-    <t>MT.LB.LBTESTCD</t>
-  </si>
-  <si>
-    <t>MT.LB.LBTEST</t>
-  </si>
-  <si>
-    <t>MT.LB.LBCAT</t>
-  </si>
-  <si>
-    <t>MT.LB.LBSTRESC</t>
-  </si>
-  <si>
-    <t>MT.LB.LBSTRESN</t>
-  </si>
-  <si>
-    <t>MT.LB.LBSTRESU</t>
-  </si>
-  <si>
-    <t>MT.LB.LBSTNRLO</t>
-  </si>
-  <si>
-    <t>MT.LB.LBSTNRHI</t>
-  </si>
-  <si>
-    <t>MT.LB.LBNRIND</t>
-  </si>
-  <si>
-    <t>MT.LB.LBBLFL</t>
-  </si>
-  <si>
-    <t>MT.LB.EPOCH</t>
-  </si>
-  <si>
-    <t>MT.METADATAENTRY</t>
-  </si>
-  <si>
-    <t>MT.XP.XPSEQ</t>
-  </si>
-  <si>
-    <t>MT.XP.XPTESTCD</t>
-  </si>
-  <si>
-    <t>MT.XP.XPTEST</t>
-  </si>
-  <si>
-    <t>MT.XP.EPOCH</t>
-  </si>
-  <si>
-    <t>MT.XP.XPBLFL</t>
-  </si>
-  <si>
-    <t>MT.SUPPDM.RACEOTH</t>
-  </si>
-  <si>
-    <t>MT.SUPPDM.RANDDT</t>
+    <t>LB.LBTESTCD.GLUC.LBCAT.CHEMISTRY</t>
+  </si>
+  <si>
+    <t>LB.LBTESTCD.GLUC.LBCAT.URINALYSIS</t>
+  </si>
+  <si>
+    <t>SETDOMAIN</t>
+  </si>
+  <si>
+    <t>AE.AESEQ</t>
+  </si>
+  <si>
+    <t>AE.EPOCH</t>
+  </si>
+  <si>
+    <t>STUDYDAYS</t>
+  </si>
+  <si>
+    <t>DM.RFENDTC</t>
+  </si>
+  <si>
+    <t>DM.DTHDTC</t>
+  </si>
+  <si>
+    <t>DM.DTHFL</t>
+  </si>
+  <si>
+    <t>DM.AGE</t>
+  </si>
+  <si>
+    <t>DM.AGEU</t>
+  </si>
+  <si>
+    <t>DM.COUNTRY</t>
+  </si>
+  <si>
+    <t>EX.EXSEQ</t>
+  </si>
+  <si>
+    <t>EX.EXTRT</t>
+  </si>
+  <si>
+    <t>EX.EXDOSU</t>
+  </si>
+  <si>
+    <t>EX.EXDOSFRM</t>
+  </si>
+  <si>
+    <t>EX.EPOCH</t>
+  </si>
+  <si>
+    <t>SETNULL</t>
+  </si>
+  <si>
+    <t>LB.LBSEQ</t>
+  </si>
+  <si>
+    <t>LB.LBTEST</t>
+  </si>
+  <si>
+    <t>LB.LBSTRESC</t>
+  </si>
+  <si>
+    <t>LB.LBSTRESN</t>
+  </si>
+  <si>
+    <t>LB.LBSTRESU</t>
+  </si>
+  <si>
+    <t>LB.LBSTNRLO</t>
+  </si>
+  <si>
+    <t>LB.LBSTNRHI</t>
+  </si>
+  <si>
+    <t>LB.LBNRIND</t>
+  </si>
+  <si>
+    <t>LB.LBBLFL</t>
+  </si>
+  <si>
+    <t>LB.EPOCH</t>
+  </si>
+  <si>
+    <t>METADATAENTRY</t>
+  </si>
+  <si>
+    <t>XP.XPSEQ</t>
+  </si>
+  <si>
+    <t>XP.XPTESTCD</t>
+  </si>
+  <si>
+    <t>XP.XPTEST</t>
+  </si>
+  <si>
+    <t>XP.EPOCH</t>
+  </si>
+  <si>
+    <t>XP.XPBLFL</t>
+  </si>
+  <si>
+    <t>SUPPDM.RACEOTH</t>
+  </si>
+  <si>
+    <t>SUPPDM.RANDDT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2899,7 +2888,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3234,7 +3223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3300,7 +3289,7 @@
         <v>208</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G2" s="52">
         <v>3.2</v>
@@ -3318,11 +3307,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3349,7 +3338,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D1" s="54" t="s">
         <v>2</v>
@@ -3405,10 +3394,10 @@
         <v>15</v>
       </c>
       <c r="J2" s="57" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="K2" s="36" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
@@ -3440,7 +3429,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="57" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="K3" s="59"/>
     </row>
@@ -3473,7 +3462,7 @@
         <v>23</v>
       </c>
       <c r="J4" s="57" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="K4" s="59"/>
     </row>
@@ -3497,7 +3486,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="57" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H5" s="57" t="s">
         <v>25</v>
@@ -3506,7 +3495,7 @@
         <v>26</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K5" s="59"/>
     </row>
@@ -3539,7 +3528,7 @@
         <v>26</v>
       </c>
       <c r="J6" s="57" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="K6" s="59"/>
     </row>
@@ -3572,16 +3561,16 @@
         <v>33</v>
       </c>
       <c r="J7" s="61" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="K7" s="59"/>
     </row>
     <row r="8" spans="1:11" s="22" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C8" s="62">
         <v>2</v>
@@ -3596,16 +3585,16 @@
         <v>12</v>
       </c>
       <c r="G8" s="62" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="I8" s="36" t="s">
         <v>33</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="K8" s="31"/>
     </row>
@@ -3638,7 +3627,7 @@
         <v>33</v>
       </c>
       <c r="J9" s="61" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="K9" s="59"/>
     </row>
@@ -3671,7 +3660,7 @@
         <v>33</v>
       </c>
       <c r="J10" s="57" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K10" s="59"/>
     </row>
@@ -3704,7 +3693,7 @@
         <v>33</v>
       </c>
       <c r="J11" s="57" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K11" s="59"/>
     </row>
@@ -3737,7 +3726,7 @@
         <v>33</v>
       </c>
       <c r="J12" s="61" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="K12" s="59"/>
     </row>
@@ -3767,10 +3756,10 @@
         <v>48</v>
       </c>
       <c r="I13" s="57" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="J13" s="57" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="K13" s="59"/>
     </row>
@@ -3782,12 +3771,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G138" sqref="G138"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3885,7 +3874,7 @@
       </c>
       <c r="H2" s="28"/>
       <c r="I2" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -3926,7 +3915,7 @@
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="M3" s="28"/>
       <c r="N3" s="28" t="s">
@@ -3961,7 +3950,7 @@
       </c>
       <c r="H4" s="28"/>
       <c r="I4" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J4" s="31"/>
       <c r="K4" s="28"/>
@@ -4002,7 +3991,7 @@
       <c r="J5" s="28"/>
       <c r="K5" s="28"/>
       <c r="L5" s="28" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="M5" s="28"/>
       <c r="N5" s="28" t="s">
@@ -4057,7 +4046,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>226</v>
@@ -4066,12 +4055,12 @@
         <v>200</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
@@ -4093,7 +4082,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>233</v>
@@ -4102,12 +4091,12 @@
         <v>8</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
@@ -4145,7 +4134,7 @@
       </c>
       <c r="H9" s="28"/>
       <c r="I9" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
@@ -4169,7 +4158,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>233</v>
@@ -4178,12 +4167,12 @@
         <v>8</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
@@ -4205,7 +4194,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>226</v>
@@ -4214,12 +4203,12 @@
         <v>200</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
@@ -4241,7 +4230,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>233</v>
@@ -4250,12 +4239,12 @@
         <v>8</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G12" s="32"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
@@ -4277,7 +4266,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>226</v>
@@ -4286,12 +4275,12 @@
         <v>200</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
@@ -4313,7 +4302,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>233</v>
@@ -4322,12 +4311,12 @@
         <v>8</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
@@ -4363,7 +4352,7 @@
       <c r="G15" s="32"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
@@ -4387,7 +4376,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>233</v>
@@ -4396,12 +4385,12 @@
         <v>8</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
@@ -4423,7 +4412,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>226</v>
@@ -4432,12 +4421,12 @@
         <v>200</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
@@ -4459,7 +4448,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>233</v>
@@ -4468,12 +4457,12 @@
         <v>8</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G18" s="32"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J18" s="28"/>
       <c r="K18" s="28"/>
@@ -4504,7 +4493,7 @@
         <v>20</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="28"/>
@@ -4647,7 +4636,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>226</v>
@@ -4656,7 +4645,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G23" s="32"/>
       <c r="H23" s="28"/>
@@ -4704,7 +4693,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
       <c r="L24" s="28" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="M24" s="28" t="s">
         <v>350</v>
@@ -4818,7 +4807,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="28"/>
       <c r="L27" s="28" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="M27" s="28"/>
       <c r="N27" s="28" t="s">
@@ -4856,7 +4845,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="28"/>
       <c r="L28" s="28" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="M28" s="28"/>
       <c r="N28" s="28" t="s">
@@ -4891,7 +4880,7 @@
       </c>
       <c r="H29" s="28"/>
       <c r="I29" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J29" s="28"/>
       <c r="K29" s="28"/>
@@ -4932,7 +4921,7 @@
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
       <c r="L30" s="28" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="M30" s="28"/>
       <c r="N30" s="28" t="s">
@@ -4967,7 +4956,7 @@
       </c>
       <c r="H31" s="28"/>
       <c r="I31" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J31" s="28"/>
       <c r="K31" s="28"/>
@@ -5003,7 +4992,7 @@
       <c r="G32" s="32"/>
       <c r="H32" s="28"/>
       <c r="I32" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J32" s="28"/>
       <c r="K32" s="28"/>
@@ -5080,7 +5069,7 @@
       <c r="J34" s="28"/>
       <c r="K34" s="28"/>
       <c r="L34" s="28" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="M34" s="28"/>
       <c r="N34" s="28" t="s">
@@ -5099,7 +5088,7 @@
         <v>7</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D35" s="28" t="s">
         <v>246</v>
@@ -5108,12 +5097,12 @@
         <v>16</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G35" s="32"/>
       <c r="H35" s="28"/>
       <c r="I35" s="28" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J35" s="28"/>
       <c r="K35" s="28"/>
@@ -5135,7 +5124,7 @@
         <v>8</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D36" s="28" t="s">
         <v>246</v>
@@ -5144,12 +5133,12 @@
         <v>16</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G36" s="32"/>
       <c r="H36" s="28"/>
       <c r="I36" s="28" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J36" s="28"/>
       <c r="K36" s="28"/>
@@ -5171,7 +5160,7 @@
         <v>9</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D37" s="28" t="s">
         <v>246</v>
@@ -5180,7 +5169,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G37" s="32"/>
       <c r="H37" s="28"/>
@@ -5207,7 +5196,7 @@
         <v>10</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D38" s="28" t="s">
         <v>246</v>
@@ -5216,12 +5205,12 @@
         <v>16</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G38" s="32"/>
       <c r="H38" s="28"/>
       <c r="I38" s="28" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="J38" s="28"/>
       <c r="K38" s="28"/>
@@ -5243,7 +5232,7 @@
         <v>11</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D39" s="28" t="s">
         <v>246</v>
@@ -5252,7 +5241,7 @@
         <v>16</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G39" s="32"/>
       <c r="H39" s="28"/>
@@ -5262,7 +5251,7 @@
       <c r="J39" s="28"/>
       <c r="K39" s="28"/>
       <c r="L39" s="28" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="M39" s="28"/>
       <c r="N39" s="28" t="s">
@@ -5281,7 +5270,7 @@
         <v>12</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D40" s="28" t="s">
         <v>226</v>
@@ -5290,7 +5279,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G40" s="32"/>
       <c r="H40" s="28"/>
@@ -5300,7 +5289,7 @@
       <c r="J40" s="28"/>
       <c r="K40" s="28"/>
       <c r="L40" s="28" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="M40" s="28"/>
       <c r="N40" s="28" t="s">
@@ -5333,7 +5322,7 @@
       <c r="G41" s="32"/>
       <c r="H41" s="28"/>
       <c r="I41" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J41" s="28"/>
       <c r="K41" s="28"/>
@@ -5412,7 +5401,7 @@
         <v>267</v>
       </c>
       <c r="L43" s="28" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="M43" s="28"/>
       <c r="N43" s="28" t="s">
@@ -5450,7 +5439,7 @@
       <c r="J44" s="28"/>
       <c r="K44" s="28"/>
       <c r="L44" s="28" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="M44" s="28" t="s">
         <v>94</v>
@@ -5564,7 +5553,7 @@
         <v>390</v>
       </c>
       <c r="J47" s="28" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K47" s="28"/>
       <c r="L47" s="28"/>
@@ -5625,7 +5614,7 @@
         <v>21</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D49" s="28" t="s">
         <v>226</v>
@@ -5634,7 +5623,7 @@
         <v>8</v>
       </c>
       <c r="F49" s="34" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G49" s="32"/>
       <c r="H49" s="28"/>
@@ -5663,7 +5652,7 @@
         <v>22</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D50" s="28" t="s">
         <v>226</v>
@@ -5672,7 +5661,7 @@
         <v>40</v>
       </c>
       <c r="F50" s="34" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G50" s="32"/>
       <c r="H50" s="28"/>
@@ -5720,7 +5709,7 @@
       <c r="J51" s="28"/>
       <c r="K51" s="28"/>
       <c r="L51" s="28" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="M51" s="28" t="s">
         <v>106</v>
@@ -5757,7 +5746,7 @@
       </c>
       <c r="H52" s="28"/>
       <c r="I52" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J52" s="28"/>
       <c r="K52" s="28"/>
@@ -5798,7 +5787,7 @@
       <c r="J53" s="28"/>
       <c r="K53" s="28"/>
       <c r="L53" s="28" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="M53" s="28"/>
       <c r="N53" s="28" t="s">
@@ -5833,7 +5822,7 @@
       </c>
       <c r="H54" s="28"/>
       <c r="I54" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J54" s="28"/>
       <c r="K54" s="28"/>
@@ -5874,7 +5863,7 @@
       <c r="J55" s="28"/>
       <c r="K55" s="28"/>
       <c r="L55" s="28" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="M55" s="28"/>
       <c r="N55" s="28" t="s">
@@ -5902,7 +5891,7 @@
         <v>200</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G56" s="32">
         <v>3</v>
@@ -5914,7 +5903,7 @@
       <c r="J56" s="28"/>
       <c r="K56" s="28"/>
       <c r="L56" s="28" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="M56" s="28"/>
       <c r="N56" s="28" t="s">
@@ -5942,7 +5931,7 @@
         <v>8</v>
       </c>
       <c r="F57" s="28" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G57" s="32"/>
       <c r="H57" s="28"/>
@@ -5988,7 +5977,7 @@
       <c r="J58" s="28"/>
       <c r="K58" s="28"/>
       <c r="L58" s="28" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="M58" s="28" t="s">
         <v>184</v>
@@ -6028,7 +6017,7 @@
       <c r="J59" s="28"/>
       <c r="K59" s="28"/>
       <c r="L59" s="28" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="M59" s="28" t="s">
         <v>109</v>
@@ -6068,7 +6057,7 @@
       <c r="J60" s="28"/>
       <c r="K60" s="28"/>
       <c r="L60" s="28" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="M60" s="28" t="s">
         <v>350</v>
@@ -6182,7 +6171,7 @@
       <c r="J63" s="28"/>
       <c r="K63" s="28"/>
       <c r="L63" s="28" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="M63" s="28"/>
       <c r="N63" s="28" t="s">
@@ -6220,7 +6209,7 @@
       <c r="J64" s="28"/>
       <c r="K64" s="28"/>
       <c r="L64" s="28" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="M64" s="28"/>
       <c r="N64" s="28" t="s">
@@ -6255,7 +6244,7 @@
       </c>
       <c r="H65" s="28"/>
       <c r="I65" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J65" s="28"/>
       <c r="K65" s="28"/>
@@ -6296,7 +6285,7 @@
       <c r="J66" s="28"/>
       <c r="K66" s="28"/>
       <c r="L66" s="28" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="M66" s="28"/>
       <c r="N66" s="28" t="s">
@@ -6329,7 +6318,7 @@
       </c>
       <c r="H67" s="28"/>
       <c r="I67" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J67" s="28"/>
       <c r="K67" s="28"/>
@@ -6365,7 +6354,7 @@
       </c>
       <c r="H68" s="28"/>
       <c r="I68" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J68" s="28"/>
       <c r="K68" s="28"/>
@@ -6401,7 +6390,7 @@
       </c>
       <c r="H69" s="28"/>
       <c r="I69" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J69" s="28"/>
       <c r="K69" s="28"/>
@@ -6437,7 +6426,7 @@
       </c>
       <c r="H70" s="28"/>
       <c r="I70" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J70" s="28"/>
       <c r="K70" s="28"/>
@@ -6471,7 +6460,7 @@
       <c r="G71" s="32"/>
       <c r="H71" s="28"/>
       <c r="I71" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J71" s="28"/>
       <c r="K71" s="28"/>
@@ -6542,7 +6531,7 @@
       <c r="J73" s="28"/>
       <c r="K73" s="28"/>
       <c r="L73" s="28" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="M73" s="28"/>
       <c r="N73" s="28" t="s">
@@ -6578,7 +6567,7 @@
       <c r="J74" s="28"/>
       <c r="K74" s="28"/>
       <c r="L74" s="28" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="M74" s="28"/>
       <c r="N74" s="28" t="s">
@@ -6611,7 +6600,7 @@
       </c>
       <c r="H75" s="28"/>
       <c r="I75" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J75" s="28"/>
       <c r="K75" s="28"/>
@@ -6652,7 +6641,7 @@
       <c r="J76" s="28"/>
       <c r="K76" s="28"/>
       <c r="L76" s="28" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="M76" s="28"/>
       <c r="N76" s="28" t="s">
@@ -6687,7 +6676,7 @@
       </c>
       <c r="H77" s="28"/>
       <c r="I77" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J77" s="28"/>
       <c r="K77" s="28"/>
@@ -6728,7 +6717,7 @@
       <c r="J78" s="28"/>
       <c r="K78" s="28"/>
       <c r="L78" s="28" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="M78" s="28"/>
       <c r="N78" s="28" t="s">
@@ -6768,7 +6757,7 @@
       <c r="J79" s="28"/>
       <c r="K79" s="28"/>
       <c r="L79" s="28" t="s">
-        <v>828</v>
+        <v>407</v>
       </c>
       <c r="M79" s="28" t="s">
         <v>146</v>
@@ -6808,7 +6797,7 @@
       <c r="J80" s="28"/>
       <c r="K80" s="28"/>
       <c r="L80" s="28" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="M80" s="28" t="s">
         <v>124</v>
@@ -6850,7 +6839,7 @@
       <c r="J81" s="28"/>
       <c r="K81" s="28"/>
       <c r="L81" s="28" t="s">
-        <v>830</v>
+        <v>404</v>
       </c>
       <c r="M81" s="28" t="s">
         <v>114</v>
@@ -7036,7 +7025,7 @@
       <c r="J86" s="28"/>
       <c r="K86" s="28"/>
       <c r="L86" s="28" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="M86" s="28"/>
       <c r="N86" s="28" t="s">
@@ -7076,7 +7065,7 @@
       <c r="J87" s="28"/>
       <c r="K87" s="28"/>
       <c r="L87" s="28" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="M87" s="28"/>
       <c r="N87" s="28" t="s">
@@ -7114,7 +7103,7 @@
       <c r="J88" s="28"/>
       <c r="K88" s="28"/>
       <c r="L88" s="28" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="M88" s="28" t="s">
         <v>184</v>
@@ -7156,7 +7145,7 @@
       <c r="J89" s="28"/>
       <c r="K89" s="28"/>
       <c r="L89" s="28" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="M89" s="28"/>
       <c r="N89" s="28" t="s">
@@ -7196,7 +7185,7 @@
       <c r="J90" s="28"/>
       <c r="K90" s="28"/>
       <c r="L90" s="28" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="M90" s="28"/>
       <c r="N90" s="28" t="s">
@@ -7234,7 +7223,7 @@
       <c r="J91" s="28"/>
       <c r="K91" s="28"/>
       <c r="L91" s="28" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="M91" s="28" t="s">
         <v>120</v>
@@ -7274,7 +7263,7 @@
       <c r="J92" s="28"/>
       <c r="K92" s="28"/>
       <c r="L92" s="28" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="M92" s="28" t="s">
         <v>157</v>
@@ -7390,7 +7379,7 @@
       <c r="J95" s="28"/>
       <c r="K95" s="28"/>
       <c r="L95" s="28" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="M95" s="28" t="s">
         <v>350</v>
@@ -7466,7 +7455,7 @@
       <c r="J97" s="28"/>
       <c r="K97" s="28"/>
       <c r="L97" s="28" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="M97" s="28"/>
       <c r="N97" s="28" t="s">
@@ -7501,7 +7490,7 @@
       </c>
       <c r="H98" s="28"/>
       <c r="I98" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J98" s="28"/>
       <c r="K98" s="28"/>
@@ -7542,7 +7531,7 @@
       <c r="J99" s="28"/>
       <c r="K99" s="28"/>
       <c r="L99" s="28" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="M99" s="28"/>
       <c r="N99" s="28" t="s">
@@ -7582,7 +7571,7 @@
       <c r="J100" s="28"/>
       <c r="K100" s="28"/>
       <c r="L100" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M100" s="28" t="s">
         <v>103</v>
@@ -7622,7 +7611,7 @@
       <c r="J101" s="28"/>
       <c r="K101" s="28"/>
       <c r="L101" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M101" s="28" t="s">
         <v>97</v>
@@ -7652,7 +7641,7 @@
         <v>8</v>
       </c>
       <c r="F102" s="20" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G102" s="32">
         <v>3</v>
@@ -7664,7 +7653,7 @@
       <c r="J102" s="28"/>
       <c r="K102" s="28"/>
       <c r="L102" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M102" s="28"/>
       <c r="N102" s="28" t="s">
@@ -7702,7 +7691,7 @@
       <c r="J103" s="28"/>
       <c r="K103" s="28"/>
       <c r="L103" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M103" s="28"/>
       <c r="N103" s="28" t="s">
@@ -7740,7 +7729,7 @@
       <c r="J104" s="28"/>
       <c r="K104" s="28"/>
       <c r="L104" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M104" s="28"/>
       <c r="N104" s="28" t="s">
@@ -7778,7 +7767,7 @@
       <c r="J105" s="28"/>
       <c r="K105" s="28"/>
       <c r="L105" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M105" s="28"/>
       <c r="N105" s="28" t="s">
@@ -7816,7 +7805,7 @@
       <c r="J106" s="28"/>
       <c r="K106" s="28"/>
       <c r="L106" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M106" s="28"/>
       <c r="N106" s="28" t="s">
@@ -7854,7 +7843,7 @@
       <c r="J107" s="28"/>
       <c r="K107" s="28"/>
       <c r="L107" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M107" s="28" t="s">
         <v>350</v>
@@ -7891,7 +7880,7 @@
       </c>
       <c r="H108" s="28"/>
       <c r="I108" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J108" s="28"/>
       <c r="K108" s="28"/>
@@ -7932,7 +7921,7 @@
       <c r="J109" s="28"/>
       <c r="K109" s="28"/>
       <c r="L109" s="28" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="M109" s="28"/>
       <c r="N109" s="28" t="s">
@@ -7972,7 +7961,7 @@
       <c r="J110" s="28"/>
       <c r="K110" s="28"/>
       <c r="L110" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M110" s="28"/>
       <c r="N110" s="28" t="s">
@@ -8010,7 +7999,7 @@
       <c r="J111" s="28"/>
       <c r="K111" s="28"/>
       <c r="L111" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M111" s="28"/>
       <c r="N111" s="28" t="s">
@@ -8048,7 +8037,7 @@
       <c r="J112" s="28"/>
       <c r="K112" s="28"/>
       <c r="L112" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M112" s="28"/>
       <c r="N112" s="28" t="s">
@@ -8086,7 +8075,7 @@
       <c r="J113" s="28"/>
       <c r="K113" s="28"/>
       <c r="L113" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M113" s="28"/>
       <c r="N113" s="28" t="s">
@@ -8124,7 +8113,7 @@
       <c r="J114" s="28"/>
       <c r="K114" s="28"/>
       <c r="L114" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M114" s="28"/>
       <c r="N114" s="28" t="s">
@@ -8159,7 +8148,7 @@
       </c>
       <c r="H115" s="28"/>
       <c r="I115" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J115" s="28"/>
       <c r="K115" s="28"/>
@@ -8200,7 +8189,7 @@
       <c r="J116" s="28"/>
       <c r="K116" s="28"/>
       <c r="L116" s="28" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="M116" s="28"/>
       <c r="N116" s="28" t="s">
@@ -8228,7 +8217,7 @@
         <v>8</v>
       </c>
       <c r="F117" s="20" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="G117" s="32">
         <v>2</v>
@@ -8240,7 +8229,7 @@
       <c r="J117" s="28"/>
       <c r="K117" s="28"/>
       <c r="L117" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M117" s="28"/>
       <c r="N117" s="28" t="s">
@@ -8278,7 +8267,7 @@
       <c r="J118" s="28"/>
       <c r="K118" s="28"/>
       <c r="L118" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M118" s="28"/>
       <c r="N118" s="28" t="s">
@@ -8316,7 +8305,7 @@
       <c r="J119" s="28"/>
       <c r="K119" s="28"/>
       <c r="L119" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M119" s="28" t="s">
         <v>111</v>
@@ -8331,7 +8320,7 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="28" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B120" s="29">
         <v>1</v>
@@ -8353,7 +8342,7 @@
       </c>
       <c r="H120" s="28"/>
       <c r="I120" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J120" s="28"/>
       <c r="K120" s="28"/>
@@ -8369,7 +8358,7 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="28" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B121" s="29">
         <v>2</v>
@@ -8394,7 +8383,7 @@
       <c r="J121" s="28"/>
       <c r="K121" s="28"/>
       <c r="L121" s="28" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="M121" s="28"/>
       <c r="N121" s="28" t="s">
@@ -8407,13 +8396,13 @@
     </row>
     <row r="122" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A122" s="28" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B122" s="29">
         <v>3</v>
       </c>
       <c r="C122" s="40" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D122" s="20" t="s">
         <v>233</v>
@@ -8422,7 +8411,7 @@
         <v>8</v>
       </c>
       <c r="F122" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G122" s="32">
         <v>2</v>
@@ -8434,7 +8423,7 @@
       <c r="J122" s="28"/>
       <c r="K122" s="28"/>
       <c r="L122" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M122" s="28"/>
       <c r="N122" s="28" t="s">
@@ -8447,13 +8436,13 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="28" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B123" s="29">
         <v>4</v>
       </c>
       <c r="C123" s="40" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D123" s="20" t="s">
         <v>226</v>
@@ -8462,7 +8451,7 @@
         <v>8</v>
       </c>
       <c r="F123" s="20" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G123" s="32"/>
       <c r="H123" s="28"/>
@@ -8472,7 +8461,7 @@
       <c r="J123" s="28"/>
       <c r="K123" s="28"/>
       <c r="L123" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M123" s="28"/>
       <c r="N123" s="28" t="s">
@@ -8485,13 +8474,13 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="28" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B124" s="29">
         <v>5</v>
       </c>
       <c r="C124" s="40" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D124" s="20" t="s">
         <v>246</v>
@@ -8500,7 +8489,7 @@
         <v>16</v>
       </c>
       <c r="F124" s="16" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G124" s="32"/>
       <c r="H124" s="28"/>
@@ -8510,7 +8499,7 @@
       <c r="J124" s="28"/>
       <c r="K124" s="28"/>
       <c r="L124" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M124" s="28"/>
       <c r="N124" s="28" t="s">
@@ -8523,13 +8512,13 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="28" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B125" s="29">
         <v>6</v>
       </c>
       <c r="C125" s="40" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D125" s="20" t="s">
         <v>246</v>
@@ -8538,7 +8527,7 @@
         <v>16</v>
       </c>
       <c r="F125" s="16" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G125" s="32"/>
       <c r="H125" s="28"/>
@@ -8548,7 +8537,7 @@
       <c r="J125" s="28"/>
       <c r="K125" s="28"/>
       <c r="L125" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M125" s="28"/>
       <c r="N125" s="28" t="s">
@@ -8561,13 +8550,13 @@
     </row>
     <row r="126" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A126" s="28" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B126" s="29">
         <v>7</v>
       </c>
       <c r="C126" s="40" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D126" s="20" t="s">
         <v>246</v>
@@ -8576,7 +8565,7 @@
         <v>16</v>
       </c>
       <c r="F126" s="20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G126" s="32"/>
       <c r="H126" s="28"/>
@@ -8586,7 +8575,7 @@
       <c r="J126" s="28"/>
       <c r="K126" s="28"/>
       <c r="L126" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M126" s="28"/>
       <c r="N126" s="28" t="s">
@@ -8599,13 +8588,13 @@
     </row>
     <row r="127" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A127" s="28" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B127" s="29">
         <v>8</v>
       </c>
       <c r="C127" s="40" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D127" s="20" t="s">
         <v>246</v>
@@ -8614,7 +8603,7 @@
         <v>16</v>
       </c>
       <c r="F127" s="20" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G127" s="32"/>
       <c r="H127" s="28"/>
@@ -8624,7 +8613,7 @@
       <c r="J127" s="28"/>
       <c r="K127" s="28"/>
       <c r="L127" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M127" s="28"/>
       <c r="N127" s="28" t="s">
@@ -8637,13 +8626,13 @@
     </row>
     <row r="128" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A128" s="28" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B128" s="29">
         <v>9</v>
       </c>
       <c r="C128" s="40" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D128" s="20" t="s">
         <v>233</v>
@@ -8652,7 +8641,7 @@
         <v>8</v>
       </c>
       <c r="F128" s="20" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G128" s="32"/>
       <c r="H128" s="28"/>
@@ -8662,7 +8651,7 @@
       <c r="J128" s="28"/>
       <c r="K128" s="28"/>
       <c r="L128" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M128" s="28"/>
       <c r="N128" s="28" t="s">
@@ -8697,7 +8686,7 @@
       </c>
       <c r="H129" s="28"/>
       <c r="I129" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J129" s="28"/>
       <c r="K129" s="28"/>
@@ -8738,7 +8727,7 @@
       <c r="J130" s="28"/>
       <c r="K130" s="28"/>
       <c r="L130" s="28" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="M130" s="28"/>
       <c r="N130" s="28" t="s">
@@ -8778,7 +8767,7 @@
       <c r="J131" s="28"/>
       <c r="K131" s="28"/>
       <c r="L131" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M131" s="28"/>
       <c r="N131" s="28" t="s">
@@ -8816,7 +8805,7 @@
       <c r="J132" s="28"/>
       <c r="K132" s="28"/>
       <c r="L132" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M132" s="28" t="s">
         <v>182</v>
@@ -8846,7 +8835,7 @@
         <v>40</v>
       </c>
       <c r="F133" s="20" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G133" s="32"/>
       <c r="H133" s="28"/>
@@ -8856,7 +8845,7 @@
       <c r="J133" s="28"/>
       <c r="K133" s="28"/>
       <c r="L133" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M133" s="28" t="s">
         <v>180</v>
@@ -8896,7 +8885,7 @@
       <c r="J134" s="28"/>
       <c r="K134" s="28"/>
       <c r="L134" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M134" s="28"/>
       <c r="N134" s="28" t="s">
@@ -8915,7 +8904,7 @@
         <v>8</v>
       </c>
       <c r="C135" s="34" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D135" s="16" t="s">
         <v>226</v>
@@ -8924,7 +8913,7 @@
         <v>40</v>
       </c>
       <c r="F135" s="34" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G135" s="32"/>
       <c r="H135" s="28"/>
@@ -8934,7 +8923,7 @@
       <c r="J135" s="28"/>
       <c r="K135" s="28"/>
       <c r="L135" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M135" s="28"/>
       <c r="N135" s="28" t="s">
@@ -8953,7 +8942,7 @@
         <v>9</v>
       </c>
       <c r="C136" s="34" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D136" s="16" t="s">
         <v>226</v>
@@ -8962,7 +8951,7 @@
         <v>40</v>
       </c>
       <c r="F136" s="34" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G136" s="32"/>
       <c r="H136" s="28"/>
@@ -8972,7 +8961,7 @@
       <c r="J136" s="28"/>
       <c r="K136" s="28"/>
       <c r="L136" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M136" s="28"/>
       <c r="N136" s="28" t="s">
@@ -8991,7 +8980,7 @@
         <v>10</v>
       </c>
       <c r="C137" s="34" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D137" s="16" t="s">
         <v>226</v>
@@ -9000,7 +8989,7 @@
         <v>40</v>
       </c>
       <c r="F137" s="34" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G137" s="32"/>
       <c r="H137" s="28"/>
@@ -9010,7 +8999,7 @@
       <c r="J137" s="28"/>
       <c r="K137" s="28"/>
       <c r="L137" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M137" s="28"/>
       <c r="N137" s="28" t="s">
@@ -9045,7 +9034,7 @@
       </c>
       <c r="H138" s="28"/>
       <c r="I138" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J138" s="28"/>
       <c r="K138" s="28"/>
@@ -9086,7 +9075,7 @@
       <c r="J139" s="28"/>
       <c r="K139" s="28"/>
       <c r="L139" s="28" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="M139" s="28"/>
       <c r="N139" s="28" t="s">
@@ -9126,7 +9115,7 @@
       <c r="J140" s="28"/>
       <c r="K140" s="28"/>
       <c r="L140" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M140" s="28"/>
       <c r="N140" s="28" t="s">
@@ -9164,7 +9153,7 @@
       <c r="J141" s="28"/>
       <c r="K141" s="28"/>
       <c r="L141" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M141" s="28"/>
       <c r="N141" s="28" t="s">
@@ -9204,7 +9193,7 @@
       <c r="J142" s="28"/>
       <c r="K142" s="28"/>
       <c r="L142" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M142" s="28" t="s">
         <v>103</v>
@@ -9244,7 +9233,7 @@
       <c r="J143" s="28"/>
       <c r="K143" s="28"/>
       <c r="L143" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M143" s="28" t="s">
         <v>97</v>
@@ -9284,7 +9273,7 @@
       <c r="J144" s="28"/>
       <c r="K144" s="28"/>
       <c r="L144" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M144" s="28"/>
       <c r="N144" s="28" t="s">
@@ -9322,7 +9311,7 @@
       <c r="J145" s="28"/>
       <c r="K145" s="28"/>
       <c r="L145" s="28" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M145" s="28"/>
       <c r="N145" s="28" t="s">
@@ -9357,7 +9346,7 @@
       </c>
       <c r="H146" s="28"/>
       <c r="I146" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J146" s="28"/>
       <c r="K146" s="28"/>
@@ -9398,7 +9387,7 @@
       <c r="J147" s="28"/>
       <c r="K147" s="28"/>
       <c r="L147" s="28" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="M147" s="28"/>
       <c r="N147" s="28" t="s">
@@ -9433,7 +9422,7 @@
       </c>
       <c r="H148" s="28"/>
       <c r="I148" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J148" s="28"/>
       <c r="K148" s="28"/>
@@ -9474,7 +9463,7 @@
       <c r="J149" s="28"/>
       <c r="K149" s="28"/>
       <c r="L149" s="28" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="M149" s="28"/>
       <c r="N149" s="28" t="s">
@@ -9514,7 +9503,7 @@
       <c r="J150" s="28"/>
       <c r="K150" s="28"/>
       <c r="L150" s="28" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="M150" s="28" t="s">
         <v>373</v>
@@ -9554,7 +9543,7 @@
       <c r="J151" s="28"/>
       <c r="K151" s="28"/>
       <c r="L151" s="28" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="M151" s="28" t="s">
         <v>375</v>
@@ -9611,7 +9600,7 @@
         <v>8</v>
       </c>
       <c r="C153" s="28" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D153" s="28" t="s">
         <v>226</v>
@@ -9647,7 +9636,7 @@
         <v>9</v>
       </c>
       <c r="C154" s="28" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D154" s="28" t="s">
         <v>233</v>
@@ -9656,7 +9645,7 @@
         <v>8</v>
       </c>
       <c r="F154" s="20" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G154" s="32"/>
       <c r="H154" s="28"/>
@@ -9702,7 +9691,7 @@
       <c r="J155" s="28"/>
       <c r="K155" s="28"/>
       <c r="L155" s="28" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="M155" s="28" t="s">
         <v>350</v>
@@ -9739,7 +9728,7 @@
       </c>
       <c r="H156" s="28"/>
       <c r="I156" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J156" s="28"/>
       <c r="K156" s="28"/>
@@ -9799,7 +9788,7 @@
         <v>13</v>
       </c>
       <c r="C158" s="40" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D158" s="28" t="s">
         <v>226</v>
@@ -9818,7 +9807,7 @@
       <c r="J158" s="28"/>
       <c r="K158" s="28"/>
       <c r="L158" s="28" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="M158" s="28" t="s">
         <v>157</v>
@@ -9894,7 +9883,7 @@
       <c r="J160" s="28"/>
       <c r="K160" s="28"/>
       <c r="L160" s="28" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="M160" s="28"/>
       <c r="N160" s="28" t="s">
@@ -9906,18 +9895,18 @@
       <c r="P160" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P160" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:P160"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10457,7 +10446,7 @@
         <v>311</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>404</v>
+        <v>804</v>
       </c>
       <c r="D12" s="67" t="s">
         <v>146</v>
@@ -10466,7 +10455,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="67" t="s">
-        <v>806</v>
+        <v>401</v>
       </c>
       <c r="G12" s="67" t="s">
         <v>218</v>
@@ -10504,7 +10493,7 @@
         <v>311</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>403</v>
+        <v>805</v>
       </c>
       <c r="D13" s="67" t="s">
         <v>146</v>
@@ -10513,7 +10502,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="67" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="G13" s="67" t="s">
         <v>226</v>
@@ -10532,7 +10521,7 @@
       <c r="M13" s="70"/>
       <c r="N13" s="70"/>
       <c r="O13" s="70" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="P13" s="70" t="s">
         <v>11</v>
@@ -10556,7 +10545,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G14" s="71" t="s">
         <v>226</v>
@@ -10565,7 +10554,7 @@
         <v>20</v>
       </c>
       <c r="I14" s="71" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="J14" s="71"/>
       <c r="K14" s="71" t="s">
@@ -10574,7 +10563,7 @@
       <c r="L14" s="71"/>
       <c r="M14" s="71"/>
       <c r="N14" s="71" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="O14" s="71"/>
       <c r="P14" s="71" t="s">
@@ -10598,7 +10587,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="71" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G15" s="71" t="s">
         <v>226</v>
@@ -10607,7 +10596,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="71" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="J15" s="71"/>
       <c r="K15" s="71" t="s">
@@ -10616,7 +10605,7 @@
       <c r="L15" s="71"/>
       <c r="M15" s="71"/>
       <c r="N15" s="71" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="O15" s="71"/>
       <c r="P15" s="71" t="s">
@@ -10632,11 +10621,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10661,119 +10650,119 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C2" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D2" s="75" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B3" s="74" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C3" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D3" s="75" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C4" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D4" s="75" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C5" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D5" s="75" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="74" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C6" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="74" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B7" s="74" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C7" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D7" s="75" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="74" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B8" s="74" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C8" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="74" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="B9" s="74" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C9" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D9" s="75" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="69" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="B10" s="69" t="s">
         <v>400</v>
@@ -10782,385 +10771,385 @@
         <v>399</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="74" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B11" s="74" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C11" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D11" s="75" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C12" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D12" s="75" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="74" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C13" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D13" s="75" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="74" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C14" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D14" s="75" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="74" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C15" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D15" s="75" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="74" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C16" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D16" s="75" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="74" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="B17" s="74" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C17" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="74" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C18" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D18" s="75" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
-        <v>828</v>
+        <v>407</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C19" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D19" s="75" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="74" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="B20" s="74" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C20" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D20" s="75" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="74" t="s">
-        <v>830</v>
+        <v>404</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C21" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D21" s="75" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="74" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="B22" s="74" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C22" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D22" s="75" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="74" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="B23" s="74" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C23" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D23" s="75" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="74" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="B24" s="74" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C24" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D24" s="75" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="74" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="B25" s="74" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C25" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D25" s="75" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="74" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="B26" s="74" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C26" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D26" s="75" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A27" s="74" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="B27" s="74" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C27" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D27" s="75" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="74" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="B28" s="74" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C28" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D28" s="75" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="74" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="B29" s="74" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C29" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D29" s="75" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="74" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B30" s="74" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C30" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D30" s="75" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="74" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="B31" s="74" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C31" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D31" s="75" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="74" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="B32" s="74" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C32" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="74" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="B33" s="74" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C33" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D33" s="75" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="74" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="B34" s="74" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C34" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D34" s="75" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="74" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="B35" s="74" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C35" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D35" s="75" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="74" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="B36" s="74" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C36" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D36" s="75" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="74" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="B37" s="74" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C37" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D37" s="75" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
   </sheetData>
@@ -11170,7 +11159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N159"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -11199,10 +11188,10 @@
   <sheetData>
     <row r="1" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>49</v>
@@ -11226,7 +11215,7 @@
         <v>55</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="K1" s="23" t="s">
         <v>56</v>
@@ -11243,10 +11232,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>60</v>
@@ -11283,10 +11272,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
+        <v>709</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>711</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>713</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>60</v>
@@ -11323,10 +11312,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>60</v>
@@ -11363,10 +11352,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>60</v>
@@ -11403,10 +11392,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>60</v>
@@ -11441,10 +11430,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>60</v>
@@ -11479,10 +11468,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>60</v>
@@ -11535,7 +11524,7 @@
         <v>79</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J9" s="28">
         <v>1</v>
@@ -11563,7 +11552,7 @@
         <v>79</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J10" s="28">
         <v>1</v>
@@ -11683,10 +11672,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>86</v>
@@ -11723,10 +11712,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
+        <v>717</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>719</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>721</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>86</v>
@@ -11763,10 +11752,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>86</v>
@@ -11803,10 +11792,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>94</v>
@@ -12039,10 +12028,10 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C24" s="28" t="s">
         <v>111</v>
@@ -12071,10 +12060,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
+        <v>723</v>
+      </c>
+      <c r="B25" s="31" t="s">
         <v>725</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>727</v>
       </c>
       <c r="C25" s="28" t="s">
         <v>111</v>
@@ -12183,10 +12172,10 @@
         <v>64</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>226</v>
@@ -12203,7 +12192,7 @@
         <v>117</v>
       </c>
       <c r="M28" s="28" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="N28" s="28" t="s">
         <v>118</v>
@@ -12295,10 +12284,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C32" s="28" t="s">
         <v>124</v>
@@ -12335,10 +12324,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>124</v>
@@ -12375,10 +12364,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C34" s="28" t="s">
         <v>124</v>
@@ -12415,10 +12404,10 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C35" s="28" t="s">
         <v>124</v>
@@ -12455,10 +12444,10 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C36" s="28" t="s">
         <v>124</v>
@@ -12495,16 +12484,16 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C37" s="28" t="s">
         <v>124</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E37" s="28" t="s">
         <v>134</v>
@@ -12518,7 +12507,7 @@
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
       <c r="J37" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="K37" s="28" t="s">
         <v>116</v>
@@ -12535,10 +12524,10 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C38" s="28" t="s">
         <v>124</v>
@@ -12575,10 +12564,10 @@
     </row>
     <row r="39" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C39" s="28" t="s">
         <v>124</v>
@@ -12587,10 +12576,10 @@
         <v>8</v>
       </c>
       <c r="E39" s="77" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F39" s="77" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G39" s="28" t="s">
         <v>226</v>
@@ -12615,10 +12604,10 @@
     </row>
     <row r="40" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>124</v>
@@ -12627,10 +12616,10 @@
         <v>9</v>
       </c>
       <c r="E40" s="77" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F40" s="77" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G40" s="28" t="s">
         <v>226</v>
@@ -12655,10 +12644,10 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C41" s="28" t="s">
         <v>124</v>
@@ -12695,16 +12684,16 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C42" s="28" t="s">
         <v>124</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E42" s="28" t="s">
         <v>402</v>
@@ -12718,7 +12707,7 @@
       <c r="H42" s="28"/>
       <c r="I42" s="28"/>
       <c r="J42" s="28" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K42" s="28" t="s">
         <v>116</v>
@@ -12727,7 +12716,7 @@
         <v>126</v>
       </c>
       <c r="M42" s="28" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="N42" s="28" t="s">
         <v>118</v>
@@ -12735,10 +12724,10 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C43" s="28" t="s">
         <v>146</v>
@@ -12775,10 +12764,10 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
+        <v>726</v>
+      </c>
+      <c r="B44" s="31" t="s">
         <v>728</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>730</v>
       </c>
       <c r="C44" s="28" t="s">
         <v>146</v>
@@ -12815,10 +12804,10 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C45" s="28" t="s">
         <v>146</v>
@@ -12855,10 +12844,10 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C46" s="28" t="s">
         <v>146</v>
@@ -12895,10 +12884,10 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C47" s="28" t="s">
         <v>146</v>
@@ -12935,10 +12924,10 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C48" s="28" t="s">
         <v>146</v>
@@ -12975,10 +12964,10 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C49" s="28" t="s">
         <v>146</v>
@@ -13015,10 +13004,10 @@
     </row>
     <row r="50" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C50" s="28" t="s">
         <v>146</v>
@@ -13030,7 +13019,7 @@
         <v>154</v>
       </c>
       <c r="F50" s="77" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>226</v>
@@ -13055,10 +13044,10 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C51" s="28" t="s">
         <v>146</v>
@@ -13070,7 +13059,7 @@
         <v>155</v>
       </c>
       <c r="F51" s="77" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>226</v>
@@ -13095,10 +13084,10 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C52" s="28" t="s">
         <v>146</v>
@@ -13135,16 +13124,16 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="31" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C53" s="28" t="s">
         <v>146</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E53" s="28" t="s">
         <v>401</v>
@@ -13158,7 +13147,7 @@
       <c r="H53" s="28"/>
       <c r="I53" s="28"/>
       <c r="J53" s="28" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K53" s="28" t="s">
         <v>116</v>
@@ -13167,7 +13156,7 @@
         <v>126</v>
       </c>
       <c r="M53" s="28" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="N53" s="28" t="s">
         <v>118</v>
@@ -13175,10 +13164,10 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>157</v>
@@ -13215,10 +13204,10 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C55" s="28" t="s">
         <v>157</v>
@@ -13230,7 +13219,7 @@
         <v>74</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G55" s="28" t="s">
         <v>226</v>
@@ -13253,10 +13242,10 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
+        <v>739</v>
+      </c>
+      <c r="B56" s="31" t="s">
         <v>741</v>
-      </c>
-      <c r="B56" s="31" t="s">
-        <v>743</v>
       </c>
       <c r="C56" s="28" t="s">
         <v>157</v>
@@ -13268,7 +13257,7 @@
         <v>161</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G56" s="28" t="s">
         <v>226</v>
@@ -13291,10 +13280,10 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C57" s="28" t="s">
         <v>157</v>
@@ -13329,10 +13318,10 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C58" s="28" t="s">
         <v>163</v>
@@ -13369,10 +13358,10 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="31" t="s">
+        <v>745</v>
+      </c>
+      <c r="B59" s="31" t="s">
         <v>747</v>
-      </c>
-      <c r="B59" s="31" t="s">
-        <v>749</v>
       </c>
       <c r="C59" s="28" t="s">
         <v>163</v>
@@ -13381,10 +13370,10 @@
         <v>2</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F59" s="28" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G59" s="28" t="s">
         <v>226</v>
@@ -13409,10 +13398,10 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C60" s="28" t="s">
         <v>163</v>
@@ -13449,10 +13438,10 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="B61" s="31" t="s">
         <v>751</v>
-      </c>
-      <c r="B61" s="31" t="s">
-        <v>753</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>175</v>
@@ -13464,7 +13453,7 @@
         <v>176</v>
       </c>
       <c r="F61" s="28" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G61" s="28" t="s">
         <v>226</v>
@@ -13489,10 +13478,10 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="31" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C62" s="28" t="s">
         <v>175</v>
@@ -13504,7 +13493,7 @@
         <v>178</v>
       </c>
       <c r="F62" s="28" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G62" s="28" t="s">
         <v>226</v>
@@ -13529,10 +13518,10 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="31" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C63" s="28" t="s">
         <v>175</v>
@@ -13544,7 +13533,7 @@
         <v>161</v>
       </c>
       <c r="F63" s="28" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G63" s="28" t="s">
         <v>226</v>
@@ -13569,10 +13558,10 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="31" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C64" s="28" t="s">
         <v>180</v>
@@ -13581,10 +13570,10 @@
         <v>1</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F64" s="31" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G64" s="28" t="s">
         <v>226</v>
@@ -13601,10 +13590,10 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C65" s="28" t="s">
         <v>180</v>
@@ -13613,10 +13602,10 @@
         <v>2</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F65" s="31" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G65" s="28" t="s">
         <v>226</v>
@@ -13633,10 +13622,10 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C66" s="28" t="s">
         <v>180</v>
@@ -13645,10 +13634,10 @@
         <v>3</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F66" s="31" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G66" s="28" t="s">
         <v>226</v>
@@ -13665,10 +13654,10 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C67" s="28" t="s">
         <v>180</v>
@@ -13677,10 +13666,10 @@
         <v>4</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F67" s="31" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G67" s="28" t="s">
         <v>226</v>
@@ -13697,10 +13686,10 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C68" s="28" t="s">
         <v>180</v>
@@ -13709,10 +13698,10 @@
         <v>5</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F68" s="31" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G68" s="28" t="s">
         <v>226</v>
@@ -13729,10 +13718,10 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C69" s="28" t="s">
         <v>180</v>
@@ -13741,10 +13730,10 @@
         <v>6</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F69" s="31" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G69" s="28" t="s">
         <v>226</v>
@@ -13761,10 +13750,10 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C70" s="28" t="s">
         <v>180</v>
@@ -13773,10 +13762,10 @@
         <v>7</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F70" s="31" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G70" s="28" t="s">
         <v>226</v>
@@ -13793,10 +13782,10 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C71" s="28" t="s">
         <v>180</v>
@@ -13805,10 +13794,10 @@
         <v>8</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F71" s="31" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G71" s="28" t="s">
         <v>226</v>
@@ -13825,10 +13814,10 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C72" s="28" t="s">
         <v>180</v>
@@ -13837,10 +13826,10 @@
         <v>9</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F72" s="31" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G72" s="28" t="s">
         <v>226</v>
@@ -13857,10 +13846,10 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C73" s="28" t="s">
         <v>180</v>
@@ -13869,10 +13858,10 @@
         <v>10</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F73" s="31" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G73" s="28" t="s">
         <v>226</v>
@@ -13889,10 +13878,10 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C74" s="28" t="s">
         <v>180</v>
@@ -13901,10 +13890,10 @@
         <v>11</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F74" s="31" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G74" s="28" t="s">
         <v>226</v>
@@ -13921,10 +13910,10 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C75" s="28" t="s">
         <v>180</v>
@@ -13933,10 +13922,10 @@
         <v>12</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F75" s="31" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G75" s="28" t="s">
         <v>226</v>
@@ -13953,10 +13942,10 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C76" s="28" t="s">
         <v>180</v>
@@ -13965,10 +13954,10 @@
         <v>13</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F76" s="31" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G76" s="28" t="s">
         <v>226</v>
@@ -13985,10 +13974,10 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C77" s="28" t="s">
         <v>180</v>
@@ -13997,10 +13986,10 @@
         <v>14</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F77" s="31" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G77" s="28" t="s">
         <v>226</v>
@@ -14017,10 +14006,10 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C78" s="28" t="s">
         <v>180</v>
@@ -14029,10 +14018,10 @@
         <v>15</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F78" s="31" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G78" s="28" t="s">
         <v>226</v>
@@ -14049,22 +14038,22 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C79" s="28" t="s">
         <v>180</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F79" s="31" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G79" s="28" t="s">
         <v>226</v>
@@ -14072,7 +14061,7 @@
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
       <c r="J79" s="28" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="K79" s="28"/>
       <c r="L79" s="28"/>
@@ -14081,22 +14070,22 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C80" s="28" t="s">
         <v>180</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E80" s="31" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F80" s="31" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G80" s="28" t="s">
         <v>226</v>
@@ -14104,7 +14093,7 @@
       <c r="H80" s="28"/>
       <c r="I80" s="28"/>
       <c r="J80" s="28" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="K80" s="28"/>
       <c r="L80" s="28"/>
@@ -14113,22 +14102,22 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C81" s="28" t="s">
         <v>180</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F81" s="31" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G81" s="28" t="s">
         <v>226</v>
@@ -14136,7 +14125,7 @@
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
       <c r="J81" s="28" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="K81" s="28"/>
       <c r="L81" s="28"/>
@@ -14145,22 +14134,22 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C82" s="28" t="s">
         <v>180</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F82" s="31" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G82" s="28" t="s">
         <v>226</v>
@@ -14168,7 +14157,7 @@
       <c r="H82" s="28"/>
       <c r="I82" s="28"/>
       <c r="J82" s="28" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K82" s="28"/>
       <c r="L82" s="28"/>
@@ -14177,22 +14166,22 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C83" s="28" t="s">
         <v>180</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F83" s="31" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G83" s="28" t="s">
         <v>226</v>
@@ -14200,7 +14189,7 @@
       <c r="H83" s="28"/>
       <c r="I83" s="28"/>
       <c r="J83" s="28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="K83" s="28"/>
       <c r="L83" s="28"/>
@@ -14209,22 +14198,22 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C84" s="28" t="s">
         <v>180</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F84" s="31" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G84" s="28" t="s">
         <v>226</v>
@@ -14232,7 +14221,7 @@
       <c r="H84" s="28"/>
       <c r="I84" s="28"/>
       <c r="J84" s="28" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K84" s="28"/>
       <c r="L84" s="28"/>
@@ -14241,22 +14230,22 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C85" s="28" t="s">
         <v>180</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F85" s="31" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G85" s="28" t="s">
         <v>226</v>
@@ -14264,7 +14253,7 @@
       <c r="H85" s="28"/>
       <c r="I85" s="28"/>
       <c r="J85" s="28" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="K85" s="28"/>
       <c r="L85" s="28"/>
@@ -14273,22 +14262,22 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C86" s="28" t="s">
         <v>180</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F86" s="31" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G86" s="28" t="s">
         <v>226</v>
@@ -14296,7 +14285,7 @@
       <c r="H86" s="28"/>
       <c r="I86" s="28"/>
       <c r="J86" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K86" s="28"/>
       <c r="L86" s="28"/>
@@ -14305,22 +14294,22 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C87" s="28" t="s">
         <v>180</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F87" s="31" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G87" s="28" t="s">
         <v>226</v>
@@ -14328,7 +14317,7 @@
       <c r="H87" s="28"/>
       <c r="I87" s="28"/>
       <c r="J87" s="28" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K87" s="28"/>
       <c r="L87" s="28"/>
@@ -14337,22 +14326,22 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C88" s="28" t="s">
         <v>180</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E88" s="79" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F88" s="79" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G88" s="28" t="s">
         <v>226</v>
@@ -14360,7 +14349,7 @@
       <c r="H88" s="28"/>
       <c r="I88" s="28"/>
       <c r="J88" s="28" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K88" s="28"/>
       <c r="L88" s="28"/>
@@ -14369,22 +14358,22 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C89" s="28" t="s">
         <v>180</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E89" s="79" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F89" s="79" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G89" s="28" t="s">
         <v>226</v>
@@ -14392,7 +14381,7 @@
       <c r="H89" s="28"/>
       <c r="I89" s="28"/>
       <c r="J89" s="28" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="K89" s="28"/>
       <c r="L89" s="28"/>
@@ -14401,22 +14390,22 @@
     </row>
     <row r="90" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C90" s="28" t="s">
         <v>180</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E90" s="79" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F90" s="79" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G90" s="28" t="s">
         <v>226</v>
@@ -14424,7 +14413,7 @@
       <c r="H90" s="28"/>
       <c r="I90" s="28"/>
       <c r="J90" s="28" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K90" s="28"/>
       <c r="L90" s="28"/>
@@ -14433,22 +14422,22 @@
     </row>
     <row r="91" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C91" s="28" t="s">
         <v>180</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E91" s="79" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F91" s="79" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G91" s="28" t="s">
         <v>226</v>
@@ -14456,7 +14445,7 @@
       <c r="H91" s="28"/>
       <c r="I91" s="28"/>
       <c r="J91" s="28" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K91" s="28"/>
       <c r="L91" s="28"/>
@@ -14465,22 +14454,22 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C92" s="28" t="s">
         <v>180</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E92" s="79" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F92" s="79" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G92" s="28" t="s">
         <v>226</v>
@@ -14488,7 +14477,7 @@
       <c r="H92" s="28"/>
       <c r="I92" s="28"/>
       <c r="J92" s="28" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K92" s="28"/>
       <c r="L92" s="28"/>
@@ -14497,22 +14486,22 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C93" s="28" t="s">
         <v>180</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E93" s="79" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F93" s="79" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G93" s="28" t="s">
         <v>226</v>
@@ -14520,7 +14509,7 @@
       <c r="H93" s="28"/>
       <c r="I93" s="28"/>
       <c r="J93" s="28" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K93" s="28"/>
       <c r="L93" s="28"/>
@@ -14529,22 +14518,22 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C94" s="28" t="s">
         <v>180</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E94" s="79" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F94" s="79" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G94" s="28" t="s">
         <v>226</v>
@@ -14552,7 +14541,7 @@
       <c r="H94" s="28"/>
       <c r="I94" s="28"/>
       <c r="J94" s="28" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K94" s="28"/>
       <c r="L94" s="28"/>
@@ -14561,22 +14550,22 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C95" s="28" t="s">
         <v>180</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E95" s="79" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F95" s="79" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G95" s="28" t="s">
         <v>226</v>
@@ -14584,7 +14573,7 @@
       <c r="H95" s="28"/>
       <c r="I95" s="28"/>
       <c r="J95" s="28" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="K95" s="28"/>
       <c r="L95" s="28"/>
@@ -14593,22 +14582,22 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C96" s="28" t="s">
         <v>180</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E96" s="79" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F96" s="79" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G96" s="28" t="s">
         <v>226</v>
@@ -14616,7 +14605,7 @@
       <c r="H96" s="28"/>
       <c r="I96" s="28"/>
       <c r="J96" s="28" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K96" s="28"/>
       <c r="L96" s="28"/>
@@ -14625,22 +14614,22 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C97" s="28" t="s">
         <v>180</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E97" s="79" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F97" s="79" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G97" s="28" t="s">
         <v>226</v>
@@ -14648,7 +14637,7 @@
       <c r="H97" s="28"/>
       <c r="I97" s="28"/>
       <c r="J97" s="28" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K97" s="28"/>
       <c r="L97" s="28"/>
@@ -14657,22 +14646,22 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C98" s="28" t="s">
         <v>180</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E98" s="79" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F98" s="79" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G98" s="28" t="s">
         <v>226</v>
@@ -14680,7 +14669,7 @@
       <c r="H98" s="28"/>
       <c r="I98" s="28"/>
       <c r="J98" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K98" s="28"/>
       <c r="L98" s="28"/>
@@ -14689,22 +14678,22 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C99" s="28" t="s">
         <v>180</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E99" s="79" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F99" s="79" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G99" s="28" t="s">
         <v>226</v>
@@ -14712,7 +14701,7 @@
       <c r="H99" s="28"/>
       <c r="I99" s="28"/>
       <c r="J99" s="28" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K99" s="28"/>
       <c r="L99" s="28"/>
@@ -14721,22 +14710,22 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C100" s="28" t="s">
         <v>180</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E100" s="79" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F100" s="79" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G100" s="28" t="s">
         <v>226</v>
@@ -14744,7 +14733,7 @@
       <c r="H100" s="28"/>
       <c r="I100" s="28"/>
       <c r="J100" s="28" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K100" s="28"/>
       <c r="L100" s="28"/>
@@ -14753,22 +14742,22 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C101" s="28" t="s">
         <v>180</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E101" s="79" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F101" s="79" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G101" s="28" t="s">
         <v>226</v>
@@ -14776,7 +14765,7 @@
       <c r="H101" s="28"/>
       <c r="I101" s="28"/>
       <c r="J101" s="28" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K101" s="28"/>
       <c r="L101" s="28"/>
@@ -14785,22 +14774,22 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C102" s="28" t="s">
         <v>180</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E102" s="79" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F102" s="79" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G102" s="28" t="s">
         <v>226</v>
@@ -14808,7 +14797,7 @@
       <c r="H102" s="28"/>
       <c r="I102" s="28"/>
       <c r="J102" s="28" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K102" s="28"/>
       <c r="L102" s="28"/>
@@ -14817,22 +14806,22 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C103" s="28" t="s">
         <v>180</v>
       </c>
       <c r="D103" s="28" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E103" s="79" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F103" s="79" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G103" s="28" t="s">
         <v>226</v>
@@ -14840,7 +14829,7 @@
       <c r="H103" s="28"/>
       <c r="I103" s="28"/>
       <c r="J103" s="28" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="K103" s="28"/>
       <c r="L103" s="28"/>
@@ -14849,22 +14838,22 @@
     </row>
     <row r="104" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C104" s="28" t="s">
         <v>180</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E104" s="79" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F104" s="79" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G104" s="28" t="s">
         <v>226</v>
@@ -14872,7 +14861,7 @@
       <c r="H104" s="28"/>
       <c r="I104" s="28"/>
       <c r="J104" s="28" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K104" s="28"/>
       <c r="L104" s="28"/>
@@ -14881,10 +14870,10 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C105" s="28" t="s">
         <v>182</v>
@@ -14893,10 +14882,10 @@
         <v>1</v>
       </c>
       <c r="E105" s="79" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F105" s="31" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G105" s="28" t="s">
         <v>226</v>
@@ -14913,10 +14902,10 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C106" s="28" t="s">
         <v>182</v>
@@ -14925,10 +14914,10 @@
         <v>2</v>
       </c>
       <c r="E106" s="79" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F106" s="31" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G106" s="28" t="s">
         <v>226</v>
@@ -14945,10 +14934,10 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C107" s="28" t="s">
         <v>182</v>
@@ -14957,10 +14946,10 @@
         <v>3</v>
       </c>
       <c r="E107" s="79" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F107" s="31" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G107" s="28" t="s">
         <v>226</v>
@@ -14977,10 +14966,10 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C108" s="28" t="s">
         <v>182</v>
@@ -14989,10 +14978,10 @@
         <v>4</v>
       </c>
       <c r="E108" s="79" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F108" s="31" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G108" s="28" t="s">
         <v>226</v>
@@ -15009,10 +14998,10 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C109" s="28" t="s">
         <v>182</v>
@@ -15021,10 +15010,10 @@
         <v>5</v>
       </c>
       <c r="E109" s="79" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F109" s="31" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G109" s="28" t="s">
         <v>226</v>
@@ -15041,10 +15030,10 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C110" s="28" t="s">
         <v>182</v>
@@ -15053,10 +15042,10 @@
         <v>6</v>
       </c>
       <c r="E110" s="79" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F110" s="31" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G110" s="28" t="s">
         <v>226</v>
@@ -15073,10 +15062,10 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C111" s="28" t="s">
         <v>182</v>
@@ -15085,10 +15074,10 @@
         <v>7</v>
       </c>
       <c r="E111" s="79" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F111" s="31" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G111" s="28" t="s">
         <v>226</v>
@@ -15105,10 +15094,10 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C112" s="28" t="s">
         <v>182</v>
@@ -15117,10 +15106,10 @@
         <v>8</v>
       </c>
       <c r="E112" s="79" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F112" s="31" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G112" s="28" t="s">
         <v>226</v>
@@ -15137,10 +15126,10 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C113" s="28" t="s">
         <v>182</v>
@@ -15149,10 +15138,10 @@
         <v>9</v>
       </c>
       <c r="E113" s="79" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F113" s="31" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G113" s="28" t="s">
         <v>226</v>
@@ -15169,10 +15158,10 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C114" s="28" t="s">
         <v>182</v>
@@ -15181,10 +15170,10 @@
         <v>10</v>
       </c>
       <c r="E114" s="79" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F114" s="31" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G114" s="28" t="s">
         <v>226</v>
@@ -15201,10 +15190,10 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C115" s="28" t="s">
         <v>182</v>
@@ -15213,10 +15202,10 @@
         <v>11</v>
       </c>
       <c r="E115" s="79" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F115" s="31" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G115" s="28" t="s">
         <v>226</v>
@@ -15233,10 +15222,10 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C116" s="28" t="s">
         <v>182</v>
@@ -15245,10 +15234,10 @@
         <v>12</v>
       </c>
       <c r="E116" s="79" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F116" s="31" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G116" s="28" t="s">
         <v>226</v>
@@ -15265,10 +15254,10 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C117" s="28" t="s">
         <v>182</v>
@@ -15277,10 +15266,10 @@
         <v>13</v>
       </c>
       <c r="E117" s="31" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F117" s="31" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G117" s="28" t="s">
         <v>226</v>
@@ -15297,10 +15286,10 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C118" s="28" t="s">
         <v>182</v>
@@ -15309,10 +15298,10 @@
         <v>14</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F118" s="31" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G118" s="28" t="s">
         <v>226</v>
@@ -15329,10 +15318,10 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C119" s="28" t="s">
         <v>182</v>
@@ -15341,10 +15330,10 @@
         <v>15</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F119" s="31" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G119" s="28" t="s">
         <v>226</v>
@@ -15361,22 +15350,22 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C120" s="28" t="s">
         <v>182</v>
       </c>
       <c r="D120" s="28" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F120" s="31" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G120" s="28" t="s">
         <v>226</v>
@@ -15384,7 +15373,7 @@
       <c r="H120" s="28"/>
       <c r="I120" s="28"/>
       <c r="J120" s="28" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="K120" s="28"/>
       <c r="L120" s="28"/>
@@ -15393,22 +15382,22 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C121" s="28" t="s">
         <v>182</v>
       </c>
       <c r="D121" s="28" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F121" s="31" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G121" s="28" t="s">
         <v>226</v>
@@ -15416,7 +15405,7 @@
       <c r="H121" s="28"/>
       <c r="I121" s="28"/>
       <c r="J121" s="28" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="K121" s="28"/>
       <c r="L121" s="28"/>
@@ -15425,22 +15414,22 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C122" s="28" t="s">
         <v>182</v>
       </c>
       <c r="D122" s="28" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F122" s="31" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G122" s="28" t="s">
         <v>226</v>
@@ -15448,7 +15437,7 @@
       <c r="H122" s="28"/>
       <c r="I122" s="28"/>
       <c r="J122" s="28" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="K122" s="28"/>
       <c r="L122" s="28"/>
@@ -15457,22 +15446,22 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C123" s="28" t="s">
         <v>182</v>
       </c>
       <c r="D123" s="28" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F123" s="31" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G123" s="28" t="s">
         <v>226</v>
@@ -15480,7 +15469,7 @@
       <c r="H123" s="28"/>
       <c r="I123" s="28"/>
       <c r="J123" s="28" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K123" s="28"/>
       <c r="L123" s="28"/>
@@ -15489,22 +15478,22 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C124" s="28" t="s">
         <v>182</v>
       </c>
       <c r="D124" s="28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F124" s="31" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G124" s="28" t="s">
         <v>226</v>
@@ -15512,7 +15501,7 @@
       <c r="H124" s="28"/>
       <c r="I124" s="28"/>
       <c r="J124" s="28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="K124" s="28"/>
       <c r="L124" s="28"/>
@@ -15521,22 +15510,22 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C125" s="28" t="s">
         <v>182</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E125" s="31" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F125" s="31" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G125" s="28" t="s">
         <v>226</v>
@@ -15544,7 +15533,7 @@
       <c r="H125" s="28"/>
       <c r="I125" s="28"/>
       <c r="J125" s="28" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K125" s="28"/>
       <c r="L125" s="28"/>
@@ -15553,22 +15542,22 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C126" s="28" t="s">
         <v>182</v>
       </c>
       <c r="D126" s="28" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E126" s="31" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F126" s="31" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G126" s="28" t="s">
         <v>226</v>
@@ -15576,7 +15565,7 @@
       <c r="H126" s="28"/>
       <c r="I126" s="28"/>
       <c r="J126" s="28" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="K126" s="28"/>
       <c r="L126" s="28"/>
@@ -15585,22 +15574,22 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C127" s="28" t="s">
         <v>182</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E127" s="31" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F127" s="31" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G127" s="28" t="s">
         <v>226</v>
@@ -15608,7 +15597,7 @@
       <c r="H127" s="28"/>
       <c r="I127" s="28"/>
       <c r="J127" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K127" s="28"/>
       <c r="L127" s="28"/>
@@ -15617,22 +15606,22 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C128" s="28" t="s">
         <v>182</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E128" s="31" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F128" s="31" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G128" s="28" t="s">
         <v>226</v>
@@ -15640,7 +15629,7 @@
       <c r="H128" s="28"/>
       <c r="I128" s="28"/>
       <c r="J128" s="28" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K128" s="28"/>
       <c r="L128" s="28"/>
@@ -15649,22 +15638,22 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C129" s="28" t="s">
         <v>182</v>
       </c>
       <c r="D129" s="28" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E129" s="31" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F129" s="79" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G129" s="28" t="s">
         <v>226</v>
@@ -15672,7 +15661,7 @@
       <c r="H129" s="28"/>
       <c r="I129" s="28"/>
       <c r="J129" s="28" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K129" s="28"/>
       <c r="L129" s="28"/>
@@ -15681,22 +15670,22 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C130" s="28" t="s">
         <v>182</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F130" s="79" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G130" s="28" t="s">
         <v>226</v>
@@ -15704,7 +15693,7 @@
       <c r="H130" s="28"/>
       <c r="I130" s="28"/>
       <c r="J130" s="28" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="K130" s="28"/>
       <c r="L130" s="28"/>
@@ -15713,22 +15702,22 @@
     </row>
     <row r="131" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C131" s="28" t="s">
         <v>182</v>
       </c>
       <c r="D131" s="28" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E131" s="31" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F131" s="79" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G131" s="28" t="s">
         <v>226</v>
@@ -15736,7 +15725,7 @@
       <c r="H131" s="28"/>
       <c r="I131" s="28"/>
       <c r="J131" s="28" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K131" s="28"/>
       <c r="L131" s="28"/>
@@ -15745,22 +15734,22 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C132" s="28" t="s">
         <v>182</v>
       </c>
       <c r="D132" s="28" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E132" s="31" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F132" s="79" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G132" s="28" t="s">
         <v>226</v>
@@ -15768,7 +15757,7 @@
       <c r="H132" s="28"/>
       <c r="I132" s="28"/>
       <c r="J132" s="28" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K132" s="28"/>
       <c r="L132" s="28"/>
@@ -15777,22 +15766,22 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C133" s="28" t="s">
         <v>182</v>
       </c>
       <c r="D133" s="28" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E133" s="31" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F133" s="79" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G133" s="28" t="s">
         <v>226</v>
@@ -15800,7 +15789,7 @@
       <c r="H133" s="28"/>
       <c r="I133" s="28"/>
       <c r="J133" s="28" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K133" s="28"/>
       <c r="L133" s="28"/>
@@ -15809,22 +15798,22 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C134" s="28" t="s">
         <v>182</v>
       </c>
       <c r="D134" s="28" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E134" s="31" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F134" s="79" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G134" s="28" t="s">
         <v>226</v>
@@ -15832,7 +15821,7 @@
       <c r="H134" s="28"/>
       <c r="I134" s="28"/>
       <c r="J134" s="28" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K134" s="28"/>
       <c r="L134" s="28"/>
@@ -15841,22 +15830,22 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C135" s="28" t="s">
         <v>182</v>
       </c>
       <c r="D135" s="28" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E135" s="31" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F135" s="79" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G135" s="28" t="s">
         <v>226</v>
@@ -15864,7 +15853,7 @@
       <c r="H135" s="28"/>
       <c r="I135" s="28"/>
       <c r="J135" s="28" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K135" s="28"/>
       <c r="L135" s="28"/>
@@ -15873,22 +15862,22 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C136" s="28" t="s">
         <v>182</v>
       </c>
       <c r="D136" s="28" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E136" s="31" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F136" s="79" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G136" s="28" t="s">
         <v>226</v>
@@ -15896,7 +15885,7 @@
       <c r="H136" s="28"/>
       <c r="I136" s="28"/>
       <c r="J136" s="28" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="K136" s="28"/>
       <c r="L136" s="28"/>
@@ -15905,22 +15894,22 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C137" s="28" t="s">
         <v>182</v>
       </c>
       <c r="D137" s="28" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E137" s="31" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F137" s="79" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G137" s="28" t="s">
         <v>226</v>
@@ -15928,7 +15917,7 @@
       <c r="H137" s="28"/>
       <c r="I137" s="28"/>
       <c r="J137" s="28" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K137" s="28"/>
       <c r="L137" s="28"/>
@@ -15937,22 +15926,22 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C138" s="28" t="s">
         <v>182</v>
       </c>
       <c r="D138" s="28" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E138" s="31" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F138" s="79" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G138" s="28" t="s">
         <v>226</v>
@@ -15960,7 +15949,7 @@
       <c r="H138" s="28"/>
       <c r="I138" s="28"/>
       <c r="J138" s="28" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K138" s="28"/>
       <c r="L138" s="28"/>
@@ -15969,22 +15958,22 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C139" s="28" t="s">
         <v>182</v>
       </c>
       <c r="D139" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E139" s="31" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F139" s="79" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G139" s="28" t="s">
         <v>226</v>
@@ -15992,7 +15981,7 @@
       <c r="H139" s="28"/>
       <c r="I139" s="28"/>
       <c r="J139" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K139" s="28"/>
       <c r="L139" s="28"/>
@@ -16001,22 +15990,22 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C140" s="28" t="s">
         <v>182</v>
       </c>
       <c r="D140" s="28" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E140" s="31" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F140" s="79" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G140" s="28" t="s">
         <v>226</v>
@@ -16024,7 +16013,7 @@
       <c r="H140" s="28"/>
       <c r="I140" s="28"/>
       <c r="J140" s="28" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K140" s="28"/>
       <c r="L140" s="28"/>
@@ -16033,22 +16022,22 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C141" s="28" t="s">
         <v>182</v>
       </c>
       <c r="D141" s="28" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E141" s="31" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F141" s="79" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G141" s="28" t="s">
         <v>226</v>
@@ -16056,7 +16045,7 @@
       <c r="H141" s="28"/>
       <c r="I141" s="28"/>
       <c r="J141" s="28" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K141" s="28"/>
       <c r="L141" s="28"/>
@@ -16065,22 +16054,22 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C142" s="28" t="s">
         <v>182</v>
       </c>
       <c r="D142" s="28" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E142" s="31" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F142" s="79" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G142" s="28" t="s">
         <v>226</v>
@@ -16088,7 +16077,7 @@
       <c r="H142" s="28"/>
       <c r="I142" s="28"/>
       <c r="J142" s="28" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K142" s="28"/>
       <c r="L142" s="28"/>
@@ -16097,22 +16086,22 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C143" s="28" t="s">
         <v>182</v>
       </c>
       <c r="D143" s="28" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E143" s="31" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F143" s="79" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G143" s="28" t="s">
         <v>226</v>
@@ -16120,7 +16109,7 @@
       <c r="H143" s="28"/>
       <c r="I143" s="28"/>
       <c r="J143" s="28" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K143" s="28"/>
       <c r="L143" s="28"/>
@@ -16129,22 +16118,22 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C144" s="28" t="s">
         <v>182</v>
       </c>
       <c r="D144" s="28" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E144" s="31" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F144" s="79" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G144" s="28" t="s">
         <v>226</v>
@@ -16152,7 +16141,7 @@
       <c r="H144" s="28"/>
       <c r="I144" s="28"/>
       <c r="J144" s="28" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="K144" s="28"/>
       <c r="L144" s="28"/>
@@ -16161,22 +16150,22 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C145" s="28" t="s">
         <v>182</v>
       </c>
       <c r="D145" s="28" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E145" s="31" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F145" s="79" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G145" s="28" t="s">
         <v>226</v>
@@ -16184,7 +16173,7 @@
       <c r="H145" s="28"/>
       <c r="I145" s="28"/>
       <c r="J145" s="28" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K145" s="28"/>
       <c r="L145" s="28"/>
@@ -16193,10 +16182,10 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="31" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C146" s="28" t="s">
         <v>184</v>
@@ -16233,10 +16222,10 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="31" t="s">
+        <v>797</v>
+      </c>
+      <c r="B147" s="20" t="s">
         <v>799</v>
-      </c>
-      <c r="B147" s="20" t="s">
-        <v>801</v>
       </c>
       <c r="C147" s="28" t="s">
         <v>184</v>
@@ -16273,10 +16262,10 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="31" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C148" s="28" t="s">
         <v>184</v>
@@ -16313,10 +16302,10 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="31" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C149" s="28" t="s">
         <v>184</v>
@@ -16353,10 +16342,10 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="31" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C150" s="28" t="s">
         <v>184</v>
@@ -16495,16 +16484,16 @@
       <c r="A154" s="31"/>
       <c r="B154" s="31"/>
       <c r="C154" s="28" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D154" s="28">
         <v>1</v>
       </c>
       <c r="E154" s="80" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F154" s="28" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G154" s="28" t="s">
         <v>226</v>
@@ -16531,16 +16520,16 @@
       <c r="A155" s="31"/>
       <c r="B155" s="31"/>
       <c r="C155" s="28" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D155" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E155" s="80" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F155" s="28" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G155" s="28" t="s">
         <v>226</v>
@@ -16573,10 +16562,10 @@
         <v>1</v>
       </c>
       <c r="E156" s="80" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F156" s="28" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G156" s="28" t="s">
         <v>226</v>
@@ -16601,10 +16590,10 @@
         <v>2</v>
       </c>
       <c r="E157" s="80" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F157" s="28" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G157" s="28" t="s">
         <v>226</v>
@@ -16629,10 +16618,10 @@
         <v>1</v>
       </c>
       <c r="E158" s="82" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F158" s="82" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G158" s="28" t="s">
         <v>226</v>
@@ -16657,10 +16646,10 @@
         <v>1</v>
       </c>
       <c r="E159" s="82" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F159" s="82" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G159" s="28" t="s">
         <v>226</v>
@@ -16682,11 +16671,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16725,19 +16714,19 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B2" s="74" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="59" t="s">
+        <v>403</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2" s="59" t="s">
         <v>405</v>
-      </c>
-      <c r="D2" s="59" t="s">
-        <v>406</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>407</v>
       </c>
       <c r="F2" s="59" t="s">
         <v>115</v>
@@ -16746,19 +16735,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>69</v>
       </c>
       <c r="C3" s="59" t="s">
+        <v>403</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>407</v>
+      </c>
+      <c r="E3" s="59" t="s">
         <v>405</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>409</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>407</v>
       </c>
       <c r="F3" s="59" t="s">
         <v>401</v>
@@ -16767,40 +16756,40 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B4" s="74" t="s">
         <v>71</v>
       </c>
       <c r="C4" s="59" t="s">
+        <v>403</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>404</v>
+      </c>
+      <c r="E4" s="59" t="s">
         <v>405</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="F4" s="59" t="s">
         <v>406</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>407</v>
-      </c>
-      <c r="F4" s="59" t="s">
-        <v>408</v>
       </c>
       <c r="G4" s="59"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B5" s="74" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="59" t="s">
+        <v>403</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>407</v>
+      </c>
+      <c r="E5" s="59" t="s">
         <v>405</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>409</v>
-      </c>
-      <c r="E5" s="59" t="s">
-        <v>407</v>
       </c>
       <c r="F5" s="59" t="s">
         <v>401</v>
@@ -16813,11 +16802,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16836,18 +16825,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
-        <v>417</v>
+        <v>103</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
-        <v>705</v>
+        <v>9</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -16857,7 +16846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16878,38 +16867,38 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="87" t="s">
+        <v>570</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>571</v>
+      </c>
+      <c r="C1" s="89" t="s">
         <v>572</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="D1" s="88" t="s">
         <v>573</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="E1" s="87" t="s">
         <v>574</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="F1" s="87" t="s">
         <v>575</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="G1" s="87" t="s">
         <v>576</v>
-      </c>
-      <c r="F1" s="87" t="s">
-        <v>577</v>
-      </c>
-      <c r="G1" s="87" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="90" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C2" s="92"/>
       <c r="D2" s="91"/>
       <c r="E2" s="90" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F2" s="90"/>
       <c r="G2" s="90" t="s">
@@ -16918,15 +16907,15 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="90" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C3" s="92"/>
       <c r="D3" s="91"/>
       <c r="E3" s="90" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F3" s="90" t="s">
         <v>162</v>
